--- a/public/templates/template_data_siswa.xlsx
+++ b/public/templates/template_data_siswa.xlsx
@@ -1,34 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectakhir\Tugas-akhir\public\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2BE939-0AF7-4009-813B-FE61FC8A122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Template Data Siswa" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Template Data Siswa" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>nisn</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>semester_1</t>
+  </si>
+  <si>
+    <t>semester_2</t>
+  </si>
+  <si>
+    <t>semester_3</t>
+  </si>
+  <si>
+    <t>semester_4</t>
+  </si>
+  <si>
+    <t>semester_5</t>
+  </si>
+  <si>
+    <t>semester_6</t>
+  </si>
+  <si>
+    <t>usp</t>
+  </si>
+  <si>
+    <t>sikap</t>
+  </si>
+  <si>
+    <t>kerapian</t>
+  </si>
+  <si>
+    <t>kerajinan</t>
+  </si>
+  <si>
+    <t>tahun angkatan</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,99 +95,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DataSiswaTable" displayName="DataSiswaTable" ref="A1:L2" headerRowCount="1">
-  <autoFilter ref="A1:L2"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="nisn"/>
-    <tableColumn id="2" name="nama"/>
-    <tableColumn id="3" name="semester_1"/>
-    <tableColumn id="4" name="semester_2"/>
-    <tableColumn id="5" name="semester_3"/>
-    <tableColumn id="6" name="semester_4"/>
-    <tableColumn id="7" name="semester_5"/>
-    <tableColumn id="8" name="semester_6"/>
-    <tableColumn id="9" name="usp"/>
-    <tableColumn id="10" name="sikap"/>
-    <tableColumn id="11" name="kerapian"/>
-    <tableColumn id="12" name="kerajinan"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DataSiswaTable" displayName="DataSiswaTable" ref="A1:M2" insertRow="1">
+  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nisn"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nama"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="semester_1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="semester_2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="semester_3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="semester_4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="semester_5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="semester_6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="usp"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="sikap"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="kerapian"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="kerajinan"/>
+    <tableColumn id="13" xr3:uid="{295BC0C3-592C-4127-9DF7-DFC56A01FFB2}" name="tahun angkatan"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -429,99 +419,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nisn</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>nama</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>semester_1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>semester_2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>semester_3</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>semester_4</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>semester_5</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>semester_6</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>usp</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>sikap</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>kerapian</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>kerajinan</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/public/templates/template_data_siswa.xlsx
+++ b/public/templates/template_data_siswa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projectakhir\Tugas-akhir\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2BE939-0AF7-4009-813B-FE61FC8A122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96354E8D-4647-42FF-B740-7701B03385FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>nisn</t>
   </si>
@@ -59,13 +59,34 @@
   </si>
   <si>
     <t>tahun angkatan</t>
+  </si>
+  <si>
+    <t>baik</t>
+  </si>
+  <si>
+    <t>kurang</t>
+  </si>
+  <si>
+    <t>cukup</t>
+  </si>
+  <si>
+    <t>contoh1</t>
+  </si>
+  <si>
+    <t>contoh2</t>
+  </si>
+  <si>
+    <t>contoh3</t>
+  </si>
+  <si>
+    <t>contoh4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +94,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,17 +123,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -114,22 +394,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DataSiswaTable" displayName="DataSiswaTable" ref="A1:M2" insertRow="1">
-  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DataSiswaTable" displayName="DataSiswaTable" ref="A1:M5" dataDxfId="0">
+  <autoFilter ref="A1:M5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nisn"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nama"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="semester_1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="semester_2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="semester_3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="semester_4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="semester_5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="semester_6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="usp"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="sikap"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="kerapian"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="kerajinan"/>
-    <tableColumn id="13" xr3:uid="{295BC0C3-592C-4127-9DF7-DFC56A01FFB2}" name="tahun angkatan"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="nisn" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nama" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="semester_1" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="semester_2" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="semester_3" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="semester_4" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="semester_5" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="semester_6" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="usp" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="sikap" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="kerapian" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="kerajinan" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{295BC0C3-592C-4127-9DF7-DFC56A01FFB2}" name="tahun angkatan" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -420,13 +700,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -467,6 +757,170 @@
       </c>
       <c r="M1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>9900012340</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3">
+        <v>95</v>
+      </c>
+      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <v>95</v>
+      </c>
+      <c r="F2" s="3">
+        <v>90</v>
+      </c>
+      <c r="G2" s="3">
+        <v>90</v>
+      </c>
+      <c r="H2" s="3">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>9900012341</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>89</v>
+      </c>
+      <c r="F3" s="3">
+        <v>89</v>
+      </c>
+      <c r="G3" s="3">
+        <v>78</v>
+      </c>
+      <c r="H3" s="3">
+        <v>89</v>
+      </c>
+      <c r="I3" s="3">
+        <v>89</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>9900012342</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3">
+        <v>78</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3">
+        <v>78</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>78</v>
+      </c>
+      <c r="H4" s="3">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3">
+        <v>89</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>9900012343</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>79</v>
+      </c>
+      <c r="D5" s="3">
+        <v>70</v>
+      </c>
+      <c r="E5" s="3">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3">
+        <v>79</v>
+      </c>
+      <c r="G5" s="3">
+        <v>79</v>
+      </c>
+      <c r="H5" s="3">
+        <v>70</v>
+      </c>
+      <c r="I5" s="3">
+        <v>69</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
